--- a/jobSearchTerms.xlsx
+++ b/jobSearchTerms.xlsx
@@ -37,52 +37,52 @@
     <t xml:space="preserve">paid training</t>
   </si>
   <si>
+    <t xml:space="preserve">ga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cnc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">will train</t>
+  </si>
+  <si>
+    <t xml:space="preserve">portland, or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">programmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">willing to train</t>
+  </si>
+  <si>
+    <t xml:space="preserve">austin, tx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inexperienced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seattle, wa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no experience necessary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on the job training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">va</t>
+  </si>
+  <si>
     <t xml:space="preserve">charlotte, nc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cnc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">will train</t>
-  </si>
-  <si>
-    <t xml:space="preserve">portland, or</t>
-  </si>
-  <si>
-    <t xml:space="preserve">programmer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">willing to train</t>
-  </si>
-  <si>
-    <t xml:space="preserve">austin, tx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inexperienced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seattle, wa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no experience necessary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">on the job trainiing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">va</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ga</t>
   </si>
   <si>
     <t xml:space="preserve">us</t>
@@ -184,7 +184,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
